--- a/doc/画像.xlsx
+++ b/doc/画像.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuusa\project\test2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Coral\個人情報-林祐\project\wpf\test2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3F53F-EA1D-415A-A5BC-F187D800B553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE29D7EE-0B0F-4F1E-AA68-28A6B1E73DA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="最尤法" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>３回目</t>
     <rPh sb="1" eb="3">
@@ -150,35 +150,6 @@
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s^2の誤差の合計(各誤差を2乗すると分散)</t>
-    <rPh sb="4" eb="6">
-      <t>ゴサ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゴサ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ブンサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>は、N(0, σ^2)に従う。</t>
-    <rPh sb="12" eb="13">
-      <t>シタガ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1745,171 +1716,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="238125" cy="238125"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="テキスト ボックス 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4561D0EE-4768-467F-9293-2A2E91C81B45}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1666875" y="2381250"/>
-              <a:ext cx="238125" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="center"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>σ</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="テキスト ボックス 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4561D0EE-4768-467F-9293-2A2E91C81B45}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1666875" y="2381250"/>
-              <a:ext cx="238125" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>σ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^2</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238125"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9">
@@ -1999,7 +1813,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9">
@@ -2064,8 +1878,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238125"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11">
@@ -2155,7 +1969,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11">
@@ -2220,8 +2034,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238125"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="テキスト ボックス 12">
@@ -2311,7 +2125,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="テキスト ボックス 12">
@@ -2376,8 +2190,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238125"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="テキスト ボックス 13">
@@ -2467,7 +2281,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="テキスト ボックス 13">
@@ -2724,240 +2538,582 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1190625" cy="238125"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4339C309-F4E7-4A2E-9A03-1197700C30C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1076325" y="2619375"/>
+              <a:ext cx="1190625" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>σ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4339C309-F4E7-4A2E-9A03-1197700C30C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1076325" y="2619375"/>
+              <a:ext cx="1190625" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝐸〖(𝑠〗^2)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗^2</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="吹き出し: 線 (強調線付き) 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DDB38B-BCD5-4086-8FAC-DB125B1B803A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AFCA3F-6036-425A-9F3D-D545D33B70C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1419225" y="1790700"/>
-          <a:ext cx="1828800" cy="257175"/>
+        <a:xfrm rot="16200000">
+          <a:off x="2024062" y="357188"/>
+          <a:ext cx="238125" cy="952500"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="accentCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 171500"/>
+            <a:gd name="adj4" fmla="val -430334"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
+              <a:lumMod val="50000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="lgDash"/>
-          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="吹き出し: 線 (強調線付き) 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9795E6B9-9267-40CA-9EC9-775A33E111D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1190625" y="714375"/>
+          <a:ext cx="238125" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 327166"/>
+            <a:gd name="adj4" fmla="val -330333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="吹き出し: 線 (強調線付き) 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E48428D-3CE1-43A6-A29A-A168E38E78FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2143125" y="714375"/>
+          <a:ext cx="238125" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49950"/>
+            <a:gd name="adj2" fmla="val -333"/>
+            <a:gd name="adj3" fmla="val 133100"/>
+            <a:gd name="adj4" fmla="val -226334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="吹き出し: 線 (強調線付き) 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E75AC37-6686-41CB-BA45-CF327ED5D975}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44FEF0E-7CF8-424A-BA13-AF9E289570EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1276350" y="1076325"/>
-          <a:ext cx="1971675" cy="923925"/>
+        <a:xfrm rot="16200000">
+          <a:off x="1309687" y="1547813"/>
+          <a:ext cx="238125" cy="476250"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="accentCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 437166"/>
+            <a:gd name="adj4" fmla="val -30333"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
+              <a:lumMod val="50000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="lgDash"/>
-          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D007E8A-FB65-4B75-95ED-2EA162FD6DD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2266950" y="1333500"/>
-          <a:ext cx="981075" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7D6578-F702-4822-908A-12B45F5584F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2266950" y="847725"/>
-          <a:ext cx="981075" cy="1228725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4253,60 +4409,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1FE47C-7C5F-4F9B-8E7E-94237CF017FA}">
-  <dimension ref="E2:O11"/>
+  <dimension ref="E2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="5:15">
+    <row r="2" spans="5:12">
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="5:15">
+    <row r="3" spans="5:12">
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="5:15">
+    <row r="4" spans="5:12">
       <c r="H4" s="7"/>
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="5:15">
+    <row r="5" spans="5:12">
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="5:15">
+    <row r="6" spans="5:12">
       <c r="H6" s="7"/>
       <c r="L6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="5:15">
+    <row r="7" spans="5:12">
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="5:12">
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="5:12">
       <c r="H9" s="7"/>
-      <c r="O9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
+    </row>
+    <row r="10" spans="5:12">
       <c r="H10" s="7"/>
-      <c r="O10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
+    </row>
+    <row r="11" spans="5:12">
       <c r="H11" s="7"/>
     </row>
   </sheetData>
